--- a/biology/Botanique/Palicourea_glabra/Palicourea_glabra.xlsx
+++ b/biology/Botanique/Palicourea_glabra/Palicourea_glabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea glabra est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae.
-On le connaît en Guyane sous les noms de Uwa kaya (Wayãpi), ou Kutak abaruan (Palikur)[5].
+On le connaît en Guyane sous les noms de Uwa kaya (Wayãpi), ou Kutak abaruan (Palikur).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Palicourea glabra est un sous-arbrisseau ou arbuste bas jusqu'à 1 m de haut, strigile et/ou hirsute devenant souvent glabrescent.
 Les feuilles mesurent 6-14 × 1,5-7 cm, avec des pétioles longs de 5-12 mm, des stipules persistantes, unies autour de la tige, la gaine longue de 1-2 mm, avec 2 lobes par côté, étroitement triangulaires, longs de 3-10 mm.
@@ -520,10 +534,10 @@
 Les fleurs sont sessiles, avec le limbe du calice long de 0,5-2 mm, denticulé à denté.
 La corolle est blanche, avec un tube long de 10-14 mm, et des lobes de 1,5-3 mm.
 Les fruits sont subglobuleux à ellipsoïde, de couleur pourpre à bleu vif, mesurant 4-5 × 4-5 mm.
-Il comporte 2 pyrènes ventralement avec un mince sillon longitudinal, dorsalement peu strié[6].
+Il comporte 2 pyrènes ventralement avec un mince sillon longitudinal, dorsalement peu strié.
 En 1953, Lemée en propose la description suivante de Palicourea glabra :
 « [Petagomoa] glabra Brem. (Cephælis g. W., Tapogomea g. Aubl.). Petit arbrisseau dressé à tiges noueuses glabres et petits rameaux velus-roussâtres ; feuilles ovales aiguës glabres entières lisses, les plus grandes longues de 0,14 environ sur 0,06-0,07, stipules amplexicaules à lobes oblongs aigus ; capitules terminaux à long pédoncule velu-roussâtre et réceptacle avec paillettes (bractéoles) aussi velues-roussâtres ; fleurs bleues avec calice à 5 petits segments aigus, corolle à long tube renflé vers le haut et lobes aigus, étamines insérées au-dessous des lobes ; fruit ovale-oblong strié bleu. - (Aublet). »
-— Albert Lemée, 1953.[7]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -551,9 +565,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea glabra est présent de la Colombie au Brésil, en passant par le Venezuela, la Guyane, et le Pérou[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea glabra est présent de la Colombie au Brésil, en passant par le Venezuela, la Guyane, et le Pérou.
 </t>
         </is>
       </c>
@@ -582,10 +598,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea glabra est en Guyane un arbuste du sous-bois de la forêt ancienne et des vieilles forêts secondaires[5], poussant au Venezuela dans les forêts de plaine à feuilles persistantes, et les forêts hautes de caatinga sur sable blanc, à 100-200 m d'altitude[6].
-En Guyane, Palicourea glabra est pollinisée par les Euglossini Aglae caerulea et Eulaema sp.[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea glabra est en Guyane un arbuste du sous-bois de la forêt ancienne et des vieilles forêts secondaires, poussant au Venezuela dans les forêts de plaine à feuilles persistantes, et les forêts hautes de caatinga sur sable blanc, à 100-200 m d'altitude.
+En Guyane, Palicourea glabra est pollinisée par les Euglossini Aglae caerulea et Eulaema sp..
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea glabra entre dans la recette Palikur d'un onguent vivifiant[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea glabra entre dans la recette Palikur d'un onguent vivifiant.
 </t>
         </is>
       </c>
@@ -645,9 +665,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea glabra sous le nom de Tapogomea glabra et en a proposé le protologue suivant[9] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea glabra sous le nom de Tapogomea glabra et en a proposé le protologue suivant : 
 « 2. TAPOGOMEA (glabra)  foliis ovatis, acutis, glabris; capitulo riorum hirſuto. (Tabula 65.)
 Fruticulus, caulibus eredis, nodoſis, ramoſis, glabris ; ramusculis villoſis, rufeſcentibus. Folia oppoſita, petiolata, ovata, acuta, glabra, integerrima, internè pallidè-virentia. Stipula amplexicaulis, oblonga, biloba ; lobis bifidis, oppoſitis, oblongis, rigidis, acutis. Flores cæruleſcentes, terminales, in capitulum collecti, pedunculo longo villoſo ſuffulti. Bacca oblonga, ovata, ſtriata, cærrulea. Receptaculum paleaceum ; paleis longis, anguſtis, villoſis, rufeſcentibus.
 Florebat Julio &amp; Auguſto.
